--- a/drug_centers_address.xlsx
+++ b/drug_centers_address.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/eded1c9e32d3d517/GIS/datasets/Drugs-statewise/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A87A56A-D3F9-4FED-A6DF-E36F552E4AE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="8_{1A87A56A-D3F9-4FED-A6DF-E36F552E4AE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3192AA30-BDE0-4241-BF2A-5C72C93695D2}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C4781E15-40B1-4EFA-9B01-D986075B5EB0}"/>
   </bookViews>
@@ -42,9 +42,6 @@
     <t>Address</t>
   </si>
   <si>
-    <t>500/3,4,5, Kannapiran Mill Road Sowripalayam, Coimbatore, Tamilnadu-641028 India</t>
-  </si>
-  <si>
     <t>Abhasa Rehabilitation &amp; Wellness Home - Exclusive Women Center</t>
   </si>
   <si>
@@ -54,30 +51,15 @@
     <t>Hope Rehabs</t>
   </si>
   <si>
-    <t>Farm House No.31, Hill view Green, Nearby Radha Swami Gate No - 3 , Mahabalipuram, New Delhi - 110074</t>
-  </si>
-  <si>
-    <t>141/1B , 142/1B, SAI RAM NAGAR, ZAMIN UTHUKULI, POLLACHI, COIMBATORE – 642004.</t>
-  </si>
-  <si>
     <t>Lotus Wellness and Rehabilitation Center</t>
   </si>
   <si>
-    <t>Village, Narukot, Pavagadh Jambughoda Road Near Donbosco School Tal.Jambughoda Dist, Vadodara, Gujarat 389390, India</t>
-  </si>
-  <si>
     <t>Alpha Healing Center</t>
   </si>
   <si>
-    <t>32 B, DLF Chattarpur Farms, DLF Farms, New Delhi, Delhi 110068</t>
-  </si>
-  <si>
     <t>Sukoon Recovery Center</t>
   </si>
   <si>
-    <t>SF NO 898, 2B, Kembanur Road, Thondamuthur, Tamil Nadu 641109</t>
-  </si>
-  <si>
     <t>Abhasa Rehabilitation Center Coimbatore - Thondamuthur</t>
   </si>
   <si>
@@ -93,9 +75,6 @@
     <t>Veda Rehabilitation and Wellness</t>
   </si>
   <si>
-    <t>30/1-30/2, Majitha-Verka By Pass Amritsar, Punjab 143001</t>
-  </si>
-  <si>
     <t>The Hermitage Rehab</t>
   </si>
   <si>
@@ -105,25 +84,13 @@
     <t>Safe House Wellness Retreat</t>
   </si>
   <si>
-    <t>III/73 Palayamkadu, P.O. - Olassery, Kodumba, Palakkad, Kerala</t>
-  </si>
-  <si>
     <t>Kairali The Ayurvedic Healing Village</t>
   </si>
   <si>
-    <t>202, Sector-47, Near DPS Public School, Gurgaon - 122001, India</t>
-  </si>
-  <si>
     <t>Athena Behavioral Health</t>
   </si>
   <si>
-    <t>441, Song of Life Road, Urawade, Mulshi, Maharashtra 412115, India</t>
-  </si>
-  <si>
     <t>Samarpan</t>
-  </si>
-  <si>
-    <t>Plot no-A17 (Akshay farms), Bhaisrawli, Alipur road, Faridabad, Haryana 121101, India</t>
   </si>
   <si>
     <t>Kutumb Retreat</t>
@@ -275,6 +242,39 @@
   </si>
   <si>
     <t>MindPlus Ludhiana</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kannapiran Mill Road Sowripalayam, Coimbatore, Tamilnadu India</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mahabalipuram, New Delhi - 110074</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> POLLACHI, COIMBATORE – 642004.</t>
+  </si>
+  <si>
+    <t>Vadodara, Gujarat 389390, India</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> New Delhi, Delhi 110068</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thondamuthur, Tamil Nadu 641109</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Amritsar, Punjab 143001</t>
+  </si>
+  <si>
+    <t>Palakkad, Kerala,India</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gurgaon - 122001, India</t>
+  </si>
+  <si>
+    <t>Mulshi, Maharashtra 412115, India</t>
+  </si>
+  <si>
+    <t>Faridabad, Haryana 121101, India</t>
   </si>
 </sst>
 </file>
@@ -629,7 +629,7 @@
   <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -640,7 +640,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -654,10 +654,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -665,10 +665,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -676,10 +676,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -687,10 +687,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -698,10 +698,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -709,10 +709,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -720,10 +720,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -731,10 +731,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -742,10 +742,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -753,10 +753,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -764,10 +764,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -775,10 +775,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -786,10 +786,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -797,10 +797,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -808,10 +808,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -819,10 +819,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -830,10 +830,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -841,10 +841,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C19" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -852,10 +852,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C20" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -863,10 +863,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="C21" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -874,10 +874,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C22" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -885,10 +885,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="C23" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -896,10 +896,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="C24" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -907,10 +907,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="C25" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -918,10 +918,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="C26" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -929,10 +929,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="C27" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -940,10 +940,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="C28" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -951,10 +951,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="C29" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -962,10 +962,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="C30" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -973,10 +973,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="C31" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -984,10 +984,10 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="C32" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -995,10 +995,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="C33" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -1006,10 +1006,10 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="C34" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -1017,10 +1017,10 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="C35" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -1028,10 +1028,10 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="C36" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -1039,10 +1039,10 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="C37" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -1050,10 +1050,10 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="C38" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -1061,10 +1061,10 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="C39" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -1072,10 +1072,10 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="C40" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/drug_centers_address.xlsx
+++ b/drug_centers_address.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/eded1c9e32d3d517/GIS/datasets/Drugs-statewise/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="8_{1A87A56A-D3F9-4FED-A6DF-E36F552E4AE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3192AA30-BDE0-4241-BF2A-5C72C93695D2}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="8_{1A87A56A-D3F9-4FED-A6DF-E36F552E4AE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E3BC163D-4D67-4D42-96A8-BD0577F93D55}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C4781E15-40B1-4EFA-9B01-D986075B5EB0}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="79">
   <si>
     <t>Name</t>
   </si>
@@ -96,21 +96,12 @@
     <t>Kutumb Retreat</t>
   </si>
   <si>
-    <t>17th Mile Kanakapura Road, Post Taralu, Bangalore-560082</t>
-  </si>
-  <si>
     <t>Cadabam's Anunitha</t>
   </si>
   <si>
-    <t>HOUSE NO 1595, SECTOR 46, GURGAON</t>
-  </si>
-  <si>
     <t>Humana Wellness</t>
   </si>
   <si>
-    <t>M-68 Kensington Park, Sector-133, Noida, Uttar Pradesh, 201304</t>
-  </si>
-  <si>
     <t>SimranShri Rehabilitation Centre</t>
   </si>
   <si>
@@ -120,21 +111,12 @@
     <t>Veda Rehab Bangalore</t>
   </si>
   <si>
-    <t>B4, KH #184, #1073, #183/2, Bhatti ND, Chatterpur Main Road, New Delhi - 110074</t>
-  </si>
-  <si>
     <t>Sanctum Wellness</t>
   </si>
   <si>
-    <t>1750 , Mother Teresa Drive Chattarpur , New Delhi- 110074</t>
-  </si>
-  <si>
     <t>Door Of Hope</t>
   </si>
   <si>
-    <t>1299 P, Sector 46 Gurugram, Haryana, India 122022</t>
-  </si>
-  <si>
     <t>Xanadu Healthcare</t>
   </si>
   <si>
@@ -144,137 +126,152 @@
     <t>Veda Rehabilitation and Wellness New Delhi</t>
   </si>
   <si>
-    <t xml:space="preserve">Sector-56, Gurugram Haryana - 122011
+    <t>Sukoon Health</t>
+  </si>
+  <si>
+    <t>Zorbacare</t>
+  </si>
+  <si>
+    <t>Solace Raha</t>
+  </si>
+  <si>
+    <t>Turning Point Wellness Centre</t>
+  </si>
+  <si>
+    <t>Viveda Wellness</t>
+  </si>
+  <si>
+    <t>Pune, Maharashtra, India</t>
+  </si>
+  <si>
+    <t>Anatta Humanversity</t>
+  </si>
+  <si>
+    <t>Sarvam Jaipur</t>
+  </si>
+  <si>
+    <t>Collective Care</t>
+  </si>
+  <si>
+    <t>VRR Holistic Wellness Centre</t>
+  </si>
+  <si>
+    <t>Six Senses Vana</t>
+  </si>
+  <si>
+    <t>Veda5 Goa</t>
+  </si>
+  <si>
+    <t>Ghittorni, Delhi, India</t>
+  </si>
+  <si>
+    <t>Athena Luxus</t>
+  </si>
+  <si>
+    <t>MindPlus Doraha</t>
+  </si>
+  <si>
+    <t>Veda5 Rishikesh</t>
+  </si>
+  <si>
+    <t>Rekindle Wellness</t>
+  </si>
+  <si>
+    <t>Veda5 Kerala</t>
+  </si>
+  <si>
+    <t>MindPlus Ludhiana</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mahabalipuram, New Delhi - 110074</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> POLLACHI, COIMBATORE – 642004.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> New Delhi, Delhi 110068</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thondamuthur, Tamil Nadu 641109</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Amritsar, Punjab 143001</t>
+  </si>
+  <si>
+    <t>Palakkad, Kerala,India</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gurgaon - 122001, India</t>
+  </si>
+  <si>
+    <t>Mulshi, Maharashtra 412115, India</t>
+  </si>
+  <si>
+    <t>Faridabad, Haryana 121101, India</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Coimbatore, Tamilnadu India</t>
+  </si>
+  <si>
+    <t>Vadodara, Gujarat ,India</t>
+  </si>
+  <si>
+    <t>SECTOR 46, GURGAON,India</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bangalore,India -560082</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Noida, Uttar Pradesh, India -201304</t>
+  </si>
+  <si>
+    <t>New Delhi - 110074</t>
+  </si>
+  <si>
+    <t>New Delhi- 110074</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gurugram, Haryana, India 122022</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gurugram Haryana - 122011
 </t>
   </si>
   <si>
-    <t>Sukoon Health</t>
-  </si>
-  <si>
-    <t>Zorbacare</t>
-  </si>
-  <si>
-    <t>Kadavil Ln, Nethaji Nagar Edappally, Ernakulam, Kerala 682024</t>
-  </si>
-  <si>
-    <t>Solace Raha</t>
-  </si>
-  <si>
-    <t>265, VK Farm, Village Gavier, Dumas, Surat - 395007</t>
-  </si>
-  <si>
-    <t>Turning Point Wellness Centre</t>
-  </si>
-  <si>
-    <t>Beze Village, Trimbak Road, Nashik, Maharashtra 422213</t>
-  </si>
-  <si>
-    <t>Viveda Wellness</t>
-  </si>
-  <si>
-    <t>Pune, Maharashtra, India</t>
-  </si>
-  <si>
-    <t>Anatta Humanversity</t>
-  </si>
-  <si>
-    <t>Sarvam Jaipur Bichpadi, Nimeda Road, Bad ke Balaji, Near Ajmer Road, Jaipur, Rajasthan 302026</t>
-  </si>
-  <si>
-    <t>Sarvam Jaipur</t>
-  </si>
-  <si>
-    <t>Collective Care</t>
-  </si>
-  <si>
-    <t>Lake Lucerne, Lake Homes Private Rd, Chandiwali, Powai, Mumbai, Maharashtra 400076, India</t>
-  </si>
-  <si>
-    <t>SY No. 221/1 &amp; 222, Hulimangala, Anekal Taluk Bangalore, Karnataka 560105</t>
-  </si>
-  <si>
-    <t>VRR Holistic Wellness Centre</t>
-  </si>
-  <si>
-    <t>Mussoorie Rd, Malsi, Dehradun, Uttarakhand 248001, India</t>
-  </si>
-  <si>
-    <t>Six Senses Vana</t>
-  </si>
-  <si>
-    <t>Dando Rd, Arambol, Goa, INDIA 403524</t>
-  </si>
-  <si>
-    <t>Veda5 Goa</t>
-  </si>
-  <si>
-    <t>Ghittorni, Delhi, India</t>
-  </si>
-  <si>
-    <t>Athena Luxus</t>
-  </si>
-  <si>
-    <t>Village Ra Rara Sahib Road, Near Small Hydel Project, Ludhiana, Punjab, India.</t>
-  </si>
-  <si>
-    <t>MindPlus Doraha</t>
-  </si>
-  <si>
-    <t>Neelkanth Road, Rishikesh 249307 India</t>
-  </si>
-  <si>
-    <t>Veda5 Rishikesh</t>
-  </si>
-  <si>
-    <t>Joypur Road, Chakur, Bagnan, Howrah – 711303, Kolkata, West Bengal</t>
-  </si>
-  <si>
-    <t>Rekindle Wellness</t>
-  </si>
-  <si>
-    <t>Kuri Kuzhi Beach, P.O, Kaipamangalam, Dt. Thrissur, Kerala, India 680681</t>
-  </si>
-  <si>
-    <t>Veda5 Kerala</t>
-  </si>
-  <si>
-    <t>95-A, Model Gram, Kochar Market, Malwa Khalsa School Road, Ludhiana, Punjab, India.</t>
-  </si>
-  <si>
-    <t>MindPlus Ludhiana</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Kannapiran Mill Road Sowripalayam, Coimbatore, Tamilnadu India</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Mahabalipuram, New Delhi - 110074</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> POLLACHI, COIMBATORE – 642004.</t>
-  </si>
-  <si>
-    <t>Vadodara, Gujarat 389390, India</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> New Delhi, Delhi 110068</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Thondamuthur, Tamil Nadu 641109</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Amritsar, Punjab 143001</t>
-  </si>
-  <si>
-    <t>Palakkad, Kerala,India</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Gurgaon - 122001, India</t>
-  </si>
-  <si>
-    <t>Mulshi, Maharashtra 412115, India</t>
-  </si>
-  <si>
-    <t>Faridabad, Haryana 121101, India</t>
+    <t xml:space="preserve"> Ernakulam, Kerala 682024</t>
+  </si>
+  <si>
+    <t>Surat India - 395007</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nashik, Maharashtra 422213</t>
+  </si>
+  <si>
+    <t>Jaipur, Rajasthan 302026</t>
+  </si>
+  <si>
+    <t>Powai, Mumbai, Maharashtra 400076, India</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bangalore, Karnataka 560105</t>
+  </si>
+  <si>
+    <t>Dehradun, Uttarakhand 248001, India</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Goa, INDIA 403524</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ludhiana, Punjab, India.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Rishikesh  India -249307</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kolkata, West Bengal</t>
+  </si>
+  <si>
+    <t>Kerala, India 680681</t>
   </si>
 </sst>
 </file>
@@ -310,8 +307,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -327,6 +327,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -628,8 +632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7564F609-5E1F-4EB7-92F2-FD99EEF18B08}">
   <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -657,7 +661,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -668,7 +672,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -679,7 +683,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -690,7 +694,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -701,7 +705,7 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -712,7 +716,7 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -745,7 +749,7 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -767,7 +771,7 @@
         <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -778,7 +782,7 @@
         <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -789,7 +793,7 @@
         <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -800,7 +804,7 @@
         <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -808,10 +812,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -819,10 +823,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -830,10 +834,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -841,10 +845,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -852,10 +856,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -863,10 +867,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -874,10 +878,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C22" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -885,21 +889,21 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C23" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>37</v>
-      </c>
-      <c r="C24" t="s">
-        <v>36</v>
+        <v>30</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -907,7 +911,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C25" t="s">
         <v>11</v>
@@ -918,10 +922,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C26" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -929,10 +933,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C27" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -940,10 +944,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C28" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -951,10 +955,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C29" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -962,10 +966,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="C30" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -973,10 +977,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="C31" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -984,10 +988,10 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="C32" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -995,10 +999,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C33" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -1006,10 +1010,10 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="C34" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -1017,10 +1021,10 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="C35" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -1028,10 +1032,10 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="C36" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -1039,10 +1043,10 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="C37" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -1050,10 +1054,10 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="C38" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -1061,10 +1065,10 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="C39" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -1072,10 +1076,10 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="C40" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
